--- a/jerryai/dummy_data.xlsx
+++ b/jerryai/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edima/Documents/Coding/code_interview_questions/jerryai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A45D3-96DC-C04A-8104-B7087E2F7174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C310E9C-4202-FE4F-B222-4095B0085ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{30027456-44C2-FB4F-9593-44A06DFD6114}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Purchase" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -974,6 +974,198 @@
   </si>
   <si>
     <t>03/03/2020</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>00102</t>
+  </si>
+  <si>
+    <t>00103</t>
+  </si>
+  <si>
+    <t>00104</t>
+  </si>
+  <si>
+    <t>00105</t>
+  </si>
+  <si>
+    <t>00106</t>
+  </si>
+  <si>
+    <t>00107</t>
+  </si>
+  <si>
+    <t>00108</t>
+  </si>
+  <si>
+    <t>00109</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>00112</t>
+  </si>
+  <si>
+    <t>00113</t>
+  </si>
+  <si>
+    <t>00114</t>
+  </si>
+  <si>
+    <t>00115</t>
+  </si>
+  <si>
+    <t>00116</t>
+  </si>
+  <si>
+    <t>00117</t>
+  </si>
+  <si>
+    <t>00118</t>
+  </si>
+  <si>
+    <t>00119</t>
+  </si>
+  <si>
+    <t>00120</t>
+  </si>
+  <si>
+    <t>00121</t>
+  </si>
+  <si>
+    <t>00122</t>
+  </si>
+  <si>
+    <t>00123</t>
+  </si>
+  <si>
+    <t>00124</t>
+  </si>
+  <si>
+    <t>00125</t>
+  </si>
+  <si>
+    <t>00126</t>
+  </si>
+  <si>
+    <t>00127</t>
+  </si>
+  <si>
+    <t>00128</t>
+  </si>
+  <si>
+    <t>00129</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>00132</t>
+  </si>
+  <si>
+    <t>00133</t>
+  </si>
+  <si>
+    <t>00134</t>
+  </si>
+  <si>
+    <t>00135</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>00137</t>
+  </si>
+  <si>
+    <t>00138</t>
+  </si>
+  <si>
+    <t>00139</t>
+  </si>
+  <si>
+    <t>00140</t>
+  </si>
+  <si>
+    <t>00141</t>
+  </si>
+  <si>
+    <t>00142</t>
+  </si>
+  <si>
+    <t>00143</t>
+  </si>
+  <si>
+    <t>00144</t>
+  </si>
+  <si>
+    <t>00145</t>
+  </si>
+  <si>
+    <t>00146</t>
+  </si>
+  <si>
+    <t>00147</t>
+  </si>
+  <si>
+    <t>00148</t>
+  </si>
+  <si>
+    <t>00149</t>
+  </si>
+  <si>
+    <t>00150</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA6BEB-1402-CD49-A92D-D5BB744F76F7}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1386,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1397,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1408,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1419,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1430,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1441,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1452,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1463,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1474,7 +1666,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1485,7 +1677,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1496,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1507,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1518,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1529,7 +1721,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1540,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1551,7 +1743,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1562,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1573,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1584,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1595,7 +1787,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1606,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1617,7 +1809,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1628,7 +1820,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1639,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1650,7 +1842,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1661,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1672,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1683,7 +1875,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1694,7 +1886,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1705,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1716,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1727,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1738,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1749,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1760,7 +1952,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1771,7 +1963,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1782,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1793,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1804,7 +1996,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1815,7 +2007,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1826,7 +2018,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1837,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1848,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1859,7 +2051,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1870,7 +2062,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1881,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1892,7 +2084,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1903,7 +2095,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1914,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1925,7 +2117,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1936,7 +2128,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1947,7 +2139,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1958,7 +2150,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1969,7 +2161,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1980,7 +2172,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1991,7 +2183,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2002,7 +2194,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2013,7 +2205,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2024,7 +2216,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2035,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2046,7 +2238,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2057,7 +2249,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2068,7 +2260,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2079,7 +2271,7 @@
         <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2090,7 +2282,7 @@
         <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2101,7 +2293,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2112,7 +2304,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2123,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2134,7 +2326,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2145,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2156,7 +2348,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2167,7 +2359,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2178,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2189,7 +2381,7 @@
         <v>78</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2200,7 +2392,7 @@
         <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2211,7 +2403,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2222,7 +2414,7 @@
         <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2233,7 +2425,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2244,7 +2436,7 @@
         <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2255,7 +2447,7 @@
         <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2266,7 +2458,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2277,7 +2469,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2288,7 +2480,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2299,7 +2491,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2310,7 +2502,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2321,7 +2513,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2332,7 +2524,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2354,7 +2546,7 @@
         <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2365,7 +2557,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2376,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2387,7 +2579,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2398,7 +2590,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2409,7 +2601,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2420,7 +2612,7 @@
         <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2431,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2442,7 +2634,7 @@
         <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2453,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2475,7 +2667,7 @@
         <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2486,7 +2678,7 @@
         <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2497,7 +2689,7 @@
         <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2508,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2519,7 +2711,7 @@
         <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2530,7 +2722,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2541,7 +2733,7 @@
         <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2552,7 +2744,7 @@
         <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2563,7 +2755,7 @@
         <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2574,7 +2766,7 @@
         <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2585,7 +2777,7 @@
         <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2596,7 +2788,7 @@
         <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2607,7 +2799,7 @@
         <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2618,7 +2810,7 @@
         <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2629,7 +2821,7 @@
         <v>127</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2640,7 +2832,7 @@
         <v>129</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>193</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2651,7 +2843,7 @@
         <v>131</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>207</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2662,7 +2854,7 @@
         <v>133</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2673,7 +2865,7 @@
         <v>135</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2684,7 +2876,7 @@
         <v>137</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2695,7 +2887,7 @@
         <v>139</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2706,7 +2898,7 @@
         <v>141</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2717,7 +2909,7 @@
         <v>143</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2728,7 +2920,7 @@
         <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2739,7 +2931,7 @@
         <v>146</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2750,7 +2942,7 @@
         <v>147</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>225</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2761,7 +2953,7 @@
         <v>148</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2772,7 +2964,7 @@
         <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>198</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2783,7 +2975,7 @@
         <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2794,7 +2986,7 @@
         <v>151</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2805,7 +2997,7 @@
         <v>105</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2816,7 +3008,7 @@
         <v>106</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>157</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2827,7 +3019,7 @@
         <v>108</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2838,7 +3030,7 @@
         <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2849,7 +3041,7 @@
         <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>170</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2860,7 +3052,7 @@
         <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2871,7 +3063,7 @@
         <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>192</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2882,7 +3074,7 @@
         <v>118</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2893,7 +3085,7 @@
         <v>120</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2904,7 +3096,7 @@
         <v>122</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2915,7 +3107,7 @@
         <v>124</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>231</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2926,7 +3118,7 @@
         <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2937,7 +3129,7 @@
         <v>128</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>194</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2948,7 +3140,7 @@
         <v>130</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2959,7 +3151,7 @@
         <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>214</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2970,7 +3162,7 @@
         <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2981,7 +3173,7 @@
         <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>202</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2992,7 +3184,7 @@
         <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3003,7 +3195,7 @@
         <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3014,7 +3206,7 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3025,7 +3217,7 @@
         <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>179</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3059,7 +3251,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
